--- a/src/test/resources/relay_race/individual_runner_start_time/leg_1/master.xlsx
+++ b/src/test/resources/relay_race/individual_runner_start_time/leg_1/master.xlsx
@@ -185,7 +185,7 @@
     <t>MASS_START_ELAPSED_TIMES = 23:59:59,23:59:59,23:59:59,2:36:00</t>
   </si>
   <si>
-    <t>DNF_LEGS = 3:3</t>
+    <t>DNF_FINISHERS = 3:3</t>
   </si>
   <si>
     <t>INDIVIDUAL_LEG_STARTS = 2/1/0:10:00</t>
